--- a/MagentoApplication/resources/my data.xlsx
+++ b/MagentoApplication/resources/my data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEEPTHI ALLAMUDI\git\magentoApp\MagentoApplication\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285D59E6-9E3E-4135-847A-27E5C02972FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1FC029-0CC2-4C56-8394-85D4EE1CA914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
     <t>pass123</t>
   </si>
   <si>
-    <t>technical/developer</t>
+    <t>Technical/developer</t>
   </si>
 </sst>
 </file>
@@ -476,15 +476,16 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -498,13 +499,13 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -524,13 +525,13 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
@@ -550,13 +551,13 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -576,13 +577,13 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -602,13 +603,13 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
